--- a/code/build/results_MyFireflyD10_elitista/results_cec2017_10.xlsx
+++ b/code/build/results_MyFireflyD10_elitista/results_cec2017_10.xlsx
@@ -603,94 +603,94 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>3298315600</v>
+        <v>4360640000</v>
       </c>
       <c r="D2" t="n">
-        <v>33462875600</v>
+        <v>859897300000</v>
       </c>
       <c r="E2" t="n">
-        <v>28492.348</v>
+        <v>39398.82</v>
       </c>
       <c r="F2" t="n">
-        <v>252.35812</v>
+        <v>402.545</v>
       </c>
       <c r="G2" t="n">
-        <v>97.10622599999999</v>
+        <v>68.37953</v>
       </c>
       <c r="H2" t="n">
-        <v>51.690706</v>
+        <v>48.18725</v>
       </c>
       <c r="I2" t="n">
-        <v>205.00544</v>
+        <v>260.0447</v>
       </c>
       <c r="J2" t="n">
-        <v>99.53358800000001</v>
+        <v>92.91915</v>
       </c>
       <c r="K2" t="n">
-        <v>2039.6358</v>
+        <v>1220.55</v>
       </c>
       <c r="L2" t="n">
-        <v>1847.441</v>
+        <v>2042.764</v>
       </c>
       <c r="M2" t="n">
-        <v>998.44804</v>
+        <v>1053.954</v>
       </c>
       <c r="N2" t="n">
-        <v>252155880</v>
+        <v>175724900</v>
       </c>
       <c r="O2" t="n">
-        <v>5031681.92</v>
+        <v>5989354</v>
       </c>
       <c r="P2" t="n">
-        <v>15123.7746</v>
+        <v>70027.03</v>
       </c>
       <c r="Q2" t="n">
-        <v>46899.99</v>
+        <v>24998.74</v>
       </c>
       <c r="R2" t="n">
-        <v>621.49618</v>
+        <v>622.2853</v>
       </c>
       <c r="S2" t="n">
-        <v>231.29632</v>
+        <v>319.3135</v>
       </c>
       <c r="T2" t="n">
-        <v>20386287.2</v>
+        <v>2394832</v>
       </c>
       <c r="U2" t="n">
-        <v>223248.64</v>
+        <v>93084.14999999999</v>
       </c>
       <c r="V2" t="n">
-        <v>271.3711</v>
+        <v>294.4116</v>
       </c>
       <c r="W2" t="n">
-        <v>250.61596</v>
+        <v>267.108</v>
       </c>
       <c r="X2" t="n">
-        <v>640.1878800000001</v>
+        <v>899.2373</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.71392</v>
+        <v>412.7325</v>
       </c>
       <c r="Z2" t="n">
-        <v>411.10954</v>
+        <v>414.2137</v>
       </c>
       <c r="AA2" t="n">
-        <v>646.46442</v>
+        <v>603.3102</v>
       </c>
       <c r="AB2" t="n">
-        <v>977.4068</v>
+        <v>997.33</v>
       </c>
       <c r="AC2" t="n">
-        <v>474.20008</v>
+        <v>458.4332</v>
       </c>
       <c r="AD2" t="n">
-        <v>718.25656</v>
+        <v>708.6131</v>
       </c>
       <c r="AE2" t="n">
-        <v>587.5035</v>
+        <v>781.0866</v>
       </c>
       <c r="AF2" t="n">
-        <v>13034989.8</v>
+        <v>23434520</v>
       </c>
       <c r="AG2" t="n">
         <v>10</v>
@@ -704,94 +704,94 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>1088528380</v>
+        <v>581454600</v>
       </c>
       <c r="D3" t="n">
-        <v>871103660</v>
+        <v>3032308000</v>
       </c>
       <c r="E3" t="n">
-        <v>19000.582</v>
+        <v>25107.3</v>
       </c>
       <c r="F3" t="n">
-        <v>81.95661199999999</v>
+        <v>114.9269</v>
       </c>
       <c r="G3" t="n">
-        <v>79.702882</v>
+        <v>68.37953</v>
       </c>
       <c r="H3" t="n">
-        <v>31.341382</v>
+        <v>25.83035</v>
       </c>
       <c r="I3" t="n">
-        <v>127.0109</v>
+        <v>157.5582</v>
       </c>
       <c r="J3" t="n">
-        <v>73.74100200000001</v>
+        <v>59.04246</v>
       </c>
       <c r="K3" t="n">
-        <v>1030.84814</v>
+        <v>178.2969</v>
       </c>
       <c r="L3" t="n">
-        <v>1740.1048</v>
+        <v>1580.504</v>
       </c>
       <c r="M3" t="n">
-        <v>540.87032</v>
+        <v>686.0078</v>
       </c>
       <c r="N3" t="n">
-        <v>56351284</v>
+        <v>61205540</v>
       </c>
       <c r="O3" t="n">
-        <v>1730424.16</v>
+        <v>770752.4</v>
       </c>
       <c r="P3" t="n">
-        <v>11132.988</v>
+        <v>20848.06</v>
       </c>
       <c r="Q3" t="n">
-        <v>21586.12</v>
+        <v>24998.74</v>
       </c>
       <c r="R3" t="n">
-        <v>540.01438</v>
+        <v>389.5908</v>
       </c>
       <c r="S3" t="n">
-        <v>168.03084</v>
+        <v>215.9896</v>
       </c>
       <c r="T3" t="n">
-        <v>3423688.6</v>
+        <v>500904.1</v>
       </c>
       <c r="U3" t="n">
-        <v>16993.4974</v>
+        <v>93084.14999999999</v>
       </c>
       <c r="V3" t="n">
-        <v>227.28244</v>
+        <v>187.8845</v>
       </c>
       <c r="W3" t="n">
-        <v>223.98128</v>
+        <v>254.1734</v>
       </c>
       <c r="X3" t="n">
-        <v>211.76282</v>
+        <v>399.5808</v>
       </c>
       <c r="Y3" t="n">
-        <v>360.754</v>
+        <v>387.5777</v>
       </c>
       <c r="Z3" t="n">
-        <v>322.24048</v>
+        <v>378.3981</v>
       </c>
       <c r="AA3" t="n">
-        <v>515.72582</v>
+        <v>504.9449</v>
       </c>
       <c r="AB3" t="n">
-        <v>540.5278599999999</v>
+        <v>475.3044</v>
       </c>
       <c r="AC3" t="n">
-        <v>462.4759</v>
+        <v>442.9442</v>
       </c>
       <c r="AD3" t="n">
-        <v>565.8977</v>
+        <v>686.0024</v>
       </c>
       <c r="AE3" t="n">
-        <v>428.1244399999999</v>
+        <v>497.2954</v>
       </c>
       <c r="AF3" t="n">
-        <v>4202324.2</v>
+        <v>15437470</v>
       </c>
       <c r="AG3" t="n">
         <v>10</v>
@@ -805,94 +805,94 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>60582310</v>
+        <v>51725430</v>
       </c>
       <c r="D4" t="n">
-        <v>33315991.2</v>
+        <v>224462100</v>
       </c>
       <c r="E4" t="n">
-        <v>12984.6094</v>
+        <v>19308.02</v>
       </c>
       <c r="F4" t="n">
-        <v>23.836907</v>
+        <v>11.46074</v>
       </c>
       <c r="G4" t="n">
-        <v>55.985148</v>
+        <v>42.54251</v>
       </c>
       <c r="H4" t="n">
-        <v>10.520015</v>
+        <v>8.858124999999999</v>
       </c>
       <c r="I4" t="n">
-        <v>73.854686</v>
+        <v>125.1924</v>
       </c>
       <c r="J4" t="n">
-        <v>57.09071400000001</v>
+        <v>41.41114</v>
       </c>
       <c r="K4" t="n">
-        <v>565.339412</v>
+        <v>31.48434</v>
       </c>
       <c r="L4" t="n">
-        <v>1582.9726</v>
+        <v>1580.504</v>
       </c>
       <c r="M4" t="n">
-        <v>211.065452</v>
+        <v>510.9902</v>
       </c>
       <c r="N4" t="n">
-        <v>7147281.8</v>
+        <v>6377722</v>
       </c>
       <c r="O4" t="n">
-        <v>107072.732</v>
+        <v>76663.2</v>
       </c>
       <c r="P4" t="n">
-        <v>1189.43874</v>
+        <v>4450.135</v>
       </c>
       <c r="Q4" t="n">
-        <v>15107.6138</v>
+        <v>7921.947</v>
       </c>
       <c r="R4" t="n">
-        <v>378.5106</v>
+        <v>230.563</v>
       </c>
       <c r="S4" t="n">
-        <v>113.2552</v>
+        <v>215.9896</v>
       </c>
       <c r="T4" t="n">
-        <v>338549.54</v>
+        <v>94753.60000000001</v>
       </c>
       <c r="U4" t="n">
-        <v>6805.314200000001</v>
+        <v>24418.15</v>
       </c>
       <c r="V4" t="n">
-        <v>122.497474</v>
+        <v>141.3115</v>
       </c>
       <c r="W4" t="n">
-        <v>214.5856</v>
+        <v>243.5217</v>
       </c>
       <c r="X4" t="n">
-        <v>118.99852</v>
+        <v>131.4202</v>
       </c>
       <c r="Y4" t="n">
-        <v>337.14896</v>
+        <v>352.6111</v>
       </c>
       <c r="Z4" t="n">
-        <v>276.82258</v>
+        <v>378.3981</v>
       </c>
       <c r="AA4" t="n">
-        <v>470.54196</v>
+        <v>431.368</v>
       </c>
       <c r="AB4" t="n">
-        <v>364.90334</v>
+        <v>377.1354</v>
       </c>
       <c r="AC4" t="n">
-        <v>446.8102</v>
+        <v>415.4959</v>
       </c>
       <c r="AD4" t="n">
-        <v>486.83802</v>
+        <v>622.5623000000001</v>
       </c>
       <c r="AE4" t="n">
-        <v>340.74858</v>
+        <v>367.3238</v>
       </c>
       <c r="AF4" t="n">
-        <v>2420274.38</v>
+        <v>8145180</v>
       </c>
       <c r="AG4" t="n">
         <v>10</v>
@@ -906,94 +906,94 @@
         <v>5</v>
       </c>
       <c r="C5" t="n">
-        <v>3955132</v>
+        <v>2883771</v>
       </c>
       <c r="D5" t="n">
-        <v>3195.2</v>
+        <v>30223</v>
       </c>
       <c r="E5" t="n">
-        <v>1873.25108</v>
+        <v>8542.161</v>
       </c>
       <c r="F5" t="n">
-        <v>18.05736782</v>
+        <v>7.584091</v>
       </c>
       <c r="G5" t="n">
-        <v>30.719858</v>
+        <v>23.90081</v>
       </c>
       <c r="H5" t="n">
-        <v>4.0867204</v>
+        <v>1.513943</v>
       </c>
       <c r="I5" t="n">
-        <v>45.01273</v>
+        <v>47.91065</v>
       </c>
       <c r="J5" t="n">
-        <v>31.863108</v>
+        <v>9.822526999999999</v>
       </c>
       <c r="K5" t="n">
-        <v>2.7489014</v>
+        <v>1.58394</v>
       </c>
       <c r="L5" t="n">
-        <v>977.5291999999999</v>
+        <v>708.0795000000001</v>
       </c>
       <c r="M5" t="n">
-        <v>88.387568</v>
+        <v>138.5514</v>
       </c>
       <c r="N5" t="n">
-        <v>3333064</v>
+        <v>472840.9</v>
       </c>
       <c r="O5" t="n">
-        <v>15799.42148</v>
+        <v>12819.04</v>
       </c>
       <c r="P5" t="n">
-        <v>951.6622600000001</v>
+        <v>214.9034</v>
       </c>
       <c r="Q5" t="n">
-        <v>8419.698200000001</v>
+        <v>2818.708</v>
       </c>
       <c r="R5" t="n">
-        <v>266.8117</v>
+        <v>147.1468</v>
       </c>
       <c r="S5" t="n">
-        <v>63.83252</v>
+        <v>183.9421</v>
       </c>
       <c r="T5" t="n">
-        <v>22757.052</v>
+        <v>16512.92</v>
       </c>
       <c r="U5" t="n">
-        <v>5435.7309</v>
+        <v>287.7826</v>
       </c>
       <c r="V5" t="n">
-        <v>73.65250599999999</v>
+        <v>90.28628999999999</v>
       </c>
       <c r="W5" t="n">
-        <v>200.65092</v>
+        <v>218.2231</v>
       </c>
       <c r="X5" t="n">
-        <v>110.63814</v>
+        <v>111.2909</v>
       </c>
       <c r="Y5" t="n">
-        <v>320.28978</v>
+        <v>326.8263</v>
       </c>
       <c r="Z5" t="n">
-        <v>252.99352</v>
+        <v>340.723</v>
       </c>
       <c r="AA5" t="n">
-        <v>463.92356</v>
+        <v>398.5184</v>
       </c>
       <c r="AB5" t="n">
-        <v>320.02734</v>
+        <v>355.7111</v>
       </c>
       <c r="AC5" t="n">
-        <v>441.45748</v>
+        <v>407.1689</v>
       </c>
       <c r="AD5" t="n">
-        <v>451.77984</v>
+        <v>612.5035</v>
       </c>
       <c r="AE5" t="n">
-        <v>294.22826</v>
+        <v>323.5924</v>
       </c>
       <c r="AF5" t="n">
-        <v>483257.4400000001</v>
+        <v>3483976</v>
       </c>
       <c r="AG5" t="n">
         <v>10</v>
@@ -1007,94 +1007,94 @@
         <v>10</v>
       </c>
       <c r="C6" t="n">
-        <v>5664.339599999999</v>
+        <v>7338.792</v>
       </c>
       <c r="D6" t="n">
-        <v>70.8</v>
+        <v>256</v>
       </c>
       <c r="E6" t="n">
-        <v>0.47768234</v>
+        <v>1.95856</v>
       </c>
       <c r="F6" t="n">
-        <v>5.43897758</v>
+        <v>6.970096</v>
       </c>
       <c r="G6" t="n">
-        <v>27.265368</v>
+        <v>19.90368</v>
       </c>
       <c r="H6" t="n">
-        <v>1.93778586</v>
+        <v>0.1581796</v>
       </c>
       <c r="I6" t="n">
-        <v>16.2333324</v>
+        <v>14.20189</v>
       </c>
       <c r="J6" t="n">
-        <v>27.860882</v>
+        <v>4.976534</v>
       </c>
       <c r="K6" t="n">
-        <v>0.3499264472</v>
+        <v>0.2716477</v>
       </c>
       <c r="L6" t="n">
-        <v>855.9846</v>
+        <v>590.4978</v>
       </c>
       <c r="M6" t="n">
-        <v>80.94850599999999</v>
+        <v>122.3916</v>
       </c>
       <c r="N6" t="n">
-        <v>1315656.762</v>
+        <v>91680.11</v>
       </c>
       <c r="O6" t="n">
-        <v>10016.62678</v>
+        <v>274.0121</v>
       </c>
       <c r="P6" t="n">
-        <v>146.21322</v>
+        <v>114.5015</v>
       </c>
       <c r="Q6" t="n">
-        <v>2356.10322</v>
+        <v>802.8465</v>
       </c>
       <c r="R6" t="n">
-        <v>221.03312</v>
+        <v>142.0263</v>
       </c>
       <c r="S6" t="n">
-        <v>46.32798</v>
+        <v>149.5728</v>
       </c>
       <c r="T6" t="n">
-        <v>11543.9195</v>
+        <v>737.5929</v>
       </c>
       <c r="U6" t="n">
-        <v>990.600546</v>
+        <v>102.265</v>
       </c>
       <c r="V6" t="n">
-        <v>59.20142599999999</v>
+        <v>45.52729</v>
       </c>
       <c r="W6" t="n">
-        <v>198.68176</v>
+        <v>214.3308</v>
       </c>
       <c r="X6" t="n">
-        <v>102.32046</v>
+        <v>101.4917</v>
       </c>
       <c r="Y6" t="n">
-        <v>317.37264</v>
+        <v>320.3885</v>
       </c>
       <c r="Z6" t="n">
-        <v>249.35646</v>
+        <v>339.2422</v>
       </c>
       <c r="AA6" t="n">
-        <v>463.01278</v>
+        <v>397.8052</v>
       </c>
       <c r="AB6" t="n">
-        <v>315.24866</v>
+        <v>354.2282</v>
       </c>
       <c r="AC6" t="n">
-        <v>440.9249</v>
+        <v>406.3222</v>
       </c>
       <c r="AD6" t="n">
-        <v>433.2209</v>
+        <v>611.8511999999999</v>
       </c>
       <c r="AE6" t="n">
-        <v>274.26662</v>
+        <v>316.0204</v>
       </c>
       <c r="AF6" t="n">
-        <v>44547.1956</v>
+        <v>821135</v>
       </c>
       <c r="AG6" t="n">
         <v>10</v>
@@ -1108,94 +1108,94 @@
         <v>20</v>
       </c>
       <c r="C7" t="n">
-        <v>1411.949325</v>
+        <v>4917.722</v>
       </c>
       <c r="D7" t="n">
-        <v>52.6</v>
+        <v>73</v>
       </c>
       <c r="E7" t="n">
-        <v>2.2316107898e-05</v>
+        <v>0.001249345</v>
       </c>
       <c r="F7" t="n">
-        <v>5.20882226</v>
+        <v>6.62203</v>
       </c>
       <c r="G7" t="n">
-        <v>27.261798</v>
+        <v>19.89916</v>
       </c>
       <c r="H7" t="n">
-        <v>1.78357898</v>
+        <v>0.08034239999999999</v>
       </c>
       <c r="I7" t="n">
-        <v>16.1906468</v>
+        <v>14.13398</v>
       </c>
       <c r="J7" t="n">
-        <v>27.858756</v>
+        <v>4.974795</v>
       </c>
       <c r="K7" t="n">
-        <v>0.3442176156755502</v>
+        <v>0.1790567</v>
       </c>
       <c r="L7" t="n">
-        <v>854.22284</v>
+        <v>590.4409000000001</v>
       </c>
       <c r="M7" t="n">
-        <v>66.938744</v>
+        <v>122.265</v>
       </c>
       <c r="N7" t="n">
-        <v>63955.927</v>
+        <v>77680.41</v>
       </c>
       <c r="O7" t="n">
-        <v>280.61438</v>
+        <v>182.5761</v>
       </c>
       <c r="P7" t="n">
-        <v>103.661028</v>
+        <v>61.78585</v>
       </c>
       <c r="Q7" t="n">
-        <v>79.243144</v>
+        <v>95.25785</v>
       </c>
       <c r="R7" t="n">
-        <v>173.87038</v>
+        <v>138.8485</v>
       </c>
       <c r="S7" t="n">
-        <v>45.811356</v>
+        <v>149.1172</v>
       </c>
       <c r="T7" t="n">
-        <v>274.887478</v>
+        <v>31.16194</v>
       </c>
       <c r="U7" t="n">
-        <v>46.90934799999999</v>
+        <v>13.12573</v>
       </c>
       <c r="V7" t="n">
-        <v>58.15526</v>
+        <v>44.72294</v>
       </c>
       <c r="W7" t="n">
-        <v>198.66658</v>
+        <v>214.3265</v>
       </c>
       <c r="X7" t="n">
-        <v>102.04946</v>
+        <v>100.7573</v>
       </c>
       <c r="Y7" t="n">
-        <v>317.03638</v>
+        <v>319.9445</v>
       </c>
       <c r="Z7" t="n">
-        <v>249.30486</v>
+        <v>339.2404</v>
       </c>
       <c r="AA7" t="n">
-        <v>463.00296</v>
+        <v>397.7998</v>
       </c>
       <c r="AB7" t="n">
-        <v>315.1470399999999</v>
+        <v>354.2241</v>
       </c>
       <c r="AC7" t="n">
-        <v>440.89782</v>
+        <v>406.3187</v>
       </c>
       <c r="AD7" t="n">
-        <v>432.69176</v>
+        <v>611.8247</v>
       </c>
       <c r="AE7" t="n">
-        <v>273.18168</v>
+        <v>315.3899</v>
       </c>
       <c r="AF7" t="n">
-        <v>8169.700200000001</v>
+        <v>817580</v>
       </c>
       <c r="AG7" t="n">
         <v>10</v>
@@ -1209,94 +1209,94 @@
         <v>30</v>
       </c>
       <c r="C8" t="n">
-        <v>1411.8977466</v>
+        <v>4917.555</v>
       </c>
       <c r="D8" t="n">
-        <v>52.6</v>
+        <v>73</v>
       </c>
       <c r="E8" t="n">
-        <v>1.7003719884834e-07</v>
+        <v>6.892266999999999e-05</v>
       </c>
       <c r="F8" t="n">
-        <v>5.07952788</v>
+        <v>6.480135</v>
       </c>
       <c r="G8" t="n">
-        <v>27.261798</v>
+        <v>19.89916</v>
       </c>
       <c r="H8" t="n">
-        <v>1.77344982</v>
+        <v>0.07969948</v>
       </c>
       <c r="I8" t="n">
-        <v>16.1906468</v>
+        <v>14.13398</v>
       </c>
       <c r="J8" t="n">
-        <v>27.858756</v>
+        <v>4.974795</v>
       </c>
       <c r="K8" t="n">
-        <v>0.3442170402294655</v>
+        <v>0.1790565</v>
       </c>
       <c r="L8" t="n">
-        <v>845.7479999999999</v>
+        <v>150.8179</v>
       </c>
       <c r="M8" t="n">
-        <v>52.58194200000001</v>
+        <v>122.2541</v>
       </c>
       <c r="N8" t="n">
-        <v>51893.216</v>
+        <v>75457.42</v>
       </c>
       <c r="O8" t="n">
-        <v>189.771472</v>
+        <v>73.04918000000001</v>
       </c>
       <c r="P8" t="n">
-        <v>100.16651</v>
+        <v>61.61881</v>
       </c>
       <c r="Q8" t="n">
-        <v>47.587246</v>
+        <v>46.87893</v>
       </c>
       <c r="R8" t="n">
-        <v>172.94282</v>
+        <v>138.4125</v>
       </c>
       <c r="S8" t="n">
-        <v>45.445794</v>
+        <v>149.1156</v>
       </c>
       <c r="T8" t="n">
-        <v>169.726098</v>
+        <v>29.59288</v>
       </c>
       <c r="U8" t="n">
-        <v>45.6754706</v>
+        <v>5.533065</v>
       </c>
       <c r="V8" t="n">
-        <v>58.134114</v>
+        <v>42.81633</v>
       </c>
       <c r="W8" t="n">
-        <v>198.66658</v>
+        <v>214.3265</v>
       </c>
       <c r="X8" t="n">
-        <v>102.04168</v>
+        <v>100.7565</v>
       </c>
       <c r="Y8" t="n">
-        <v>316.96702</v>
+        <v>319.9007</v>
       </c>
       <c r="Z8" t="n">
-        <v>249.30482</v>
+        <v>339.2404</v>
       </c>
       <c r="AA8" t="n">
-        <v>462.8683</v>
+        <v>397.7998</v>
       </c>
       <c r="AB8" t="n">
-        <v>315.14696</v>
+        <v>301.0143</v>
       </c>
       <c r="AC8" t="n">
-        <v>440.89654</v>
+        <v>406.3185</v>
       </c>
       <c r="AD8" t="n">
-        <v>432.4951</v>
+        <v>611.8222</v>
       </c>
       <c r="AE8" t="n">
-        <v>273.1118</v>
+        <v>285.724</v>
       </c>
       <c r="AF8" t="n">
-        <v>6914.71764</v>
+        <v>817578.5</v>
       </c>
       <c r="AG8" t="n">
         <v>10</v>
@@ -1310,94 +1310,94 @@
         <v>40</v>
       </c>
       <c r="C9" t="n">
-        <v>1411.878562</v>
+        <v>4917.476</v>
       </c>
       <c r="D9" t="n">
-        <v>52.6</v>
+        <v>73</v>
       </c>
       <c r="E9" t="n">
-        <v>1.867176819288e-08</v>
+        <v>9.756763e-06</v>
       </c>
       <c r="F9" t="n">
-        <v>5.02537738</v>
+        <v>6.385036</v>
       </c>
       <c r="G9" t="n">
-        <v>27.261798</v>
+        <v>19.89916</v>
       </c>
       <c r="H9" t="n">
-        <v>1.77319142</v>
+        <v>0.07969221</v>
       </c>
       <c r="I9" t="n">
-        <v>16.1906468</v>
+        <v>14.13398</v>
       </c>
       <c r="J9" t="n">
-        <v>27.858756</v>
+        <v>4.974795</v>
       </c>
       <c r="K9" t="n">
-        <v>0.3442170201247371</v>
+        <v>0.1790565</v>
       </c>
       <c r="L9" t="n">
-        <v>669.3522</v>
+        <v>150.0691</v>
       </c>
       <c r="M9" t="n">
-        <v>49.295304</v>
+        <v>122.2471</v>
       </c>
       <c r="N9" t="n">
-        <v>50236.7474</v>
+        <v>48365.85</v>
       </c>
       <c r="O9" t="n">
-        <v>176.370384</v>
+        <v>69.49544</v>
       </c>
       <c r="P9" t="n">
-        <v>90.867966</v>
+        <v>61.60963</v>
       </c>
       <c r="Q9" t="n">
-        <v>43.680702</v>
+        <v>25.33481</v>
       </c>
       <c r="R9" t="n">
-        <v>172.3749</v>
+        <v>138.3874</v>
       </c>
       <c r="S9" t="n">
-        <v>45.087088</v>
+        <v>149.0693</v>
       </c>
       <c r="T9" t="n">
-        <v>163.844804</v>
+        <v>29.59241</v>
       </c>
       <c r="U9" t="n">
-        <v>41.9399082</v>
+        <v>4.694248</v>
       </c>
       <c r="V9" t="n">
-        <v>58.125162</v>
+        <v>42.68261</v>
       </c>
       <c r="W9" t="n">
-        <v>198.66658</v>
+        <v>214.3265</v>
       </c>
       <c r="X9" t="n">
-        <v>102.04024</v>
+        <v>100.7564</v>
       </c>
       <c r="Y9" t="n">
-        <v>316.864</v>
+        <v>319.8676</v>
       </c>
       <c r="Z9" t="n">
-        <v>249.30482</v>
+        <v>339.2404</v>
       </c>
       <c r="AA9" t="n">
-        <v>462.38652</v>
+        <v>397.7998</v>
       </c>
       <c r="AB9" t="n">
-        <v>315.14696</v>
+        <v>300.0963</v>
       </c>
       <c r="AC9" t="n">
-        <v>422.33888</v>
+        <v>406.3181</v>
       </c>
       <c r="AD9" t="n">
-        <v>432.3344800000001</v>
+        <v>611.8219</v>
       </c>
       <c r="AE9" t="n">
-        <v>272.7979</v>
+        <v>278.9206</v>
       </c>
       <c r="AF9" t="n">
-        <v>4537.62906</v>
+        <v>817578.5</v>
       </c>
       <c r="AG9" t="n">
         <v>10</v>
@@ -1411,94 +1411,94 @@
         <v>50</v>
       </c>
       <c r="C10" t="n">
-        <v>1411.8693792</v>
+        <v>4917.439</v>
       </c>
       <c r="D10" t="n">
-        <v>52.6</v>
+        <v>73</v>
       </c>
       <c r="E10" t="n">
-        <v>1.839701019288e-08</v>
+        <v>3.479192e-06</v>
       </c>
       <c r="F10" t="n">
-        <v>4.98963334</v>
+        <v>6.356095</v>
       </c>
       <c r="G10" t="n">
-        <v>27.261798</v>
+        <v>19.89916</v>
       </c>
       <c r="H10" t="n">
-        <v>1.77283166</v>
+        <v>0.07969207</v>
       </c>
       <c r="I10" t="n">
-        <v>16.1906468</v>
+        <v>14.13398</v>
       </c>
       <c r="J10" t="n">
-        <v>26.607248</v>
+        <v>4.974795</v>
       </c>
       <c r="K10" t="n">
-        <v>0.3442170201247371</v>
+        <v>0.1790565</v>
       </c>
       <c r="L10" t="n">
-        <v>668.10742</v>
+        <v>150.065</v>
       </c>
       <c r="M10" t="n">
-        <v>49.08218</v>
+        <v>68.01398</v>
       </c>
       <c r="N10" t="n">
-        <v>42822.68639999999</v>
+        <v>48305.69</v>
       </c>
       <c r="O10" t="n">
-        <v>161.288158</v>
+        <v>56.29544</v>
       </c>
       <c r="P10" t="n">
-        <v>82.853904</v>
+        <v>61.60921</v>
       </c>
       <c r="Q10" t="n">
-        <v>43.58171</v>
+        <v>21.28088</v>
       </c>
       <c r="R10" t="n">
-        <v>134.53135</v>
+        <v>137.1893</v>
       </c>
       <c r="S10" t="n">
-        <v>45.045706</v>
+        <v>149.017</v>
       </c>
       <c r="T10" t="n">
-        <v>163.521464</v>
+        <v>29.59231</v>
       </c>
       <c r="U10" t="n">
-        <v>40.4533296</v>
+        <v>4.416744</v>
       </c>
       <c r="V10" t="n">
-        <v>58.11399</v>
+        <v>42.68134</v>
       </c>
       <c r="W10" t="n">
-        <v>198.66658</v>
+        <v>214.3265</v>
       </c>
       <c r="X10" t="n">
-        <v>102.03896</v>
+        <v>100.7563</v>
       </c>
       <c r="Y10" t="n">
-        <v>316.8284</v>
+        <v>319.8643</v>
       </c>
       <c r="Z10" t="n">
-        <v>249.30482</v>
+        <v>339.2404</v>
       </c>
       <c r="AA10" t="n">
-        <v>462.23274</v>
+        <v>397.7998</v>
       </c>
       <c r="AB10" t="n">
-        <v>315.14696</v>
+        <v>300.0244</v>
       </c>
       <c r="AC10" t="n">
-        <v>419.95768</v>
+        <v>406.318</v>
       </c>
       <c r="AD10" t="n">
-        <v>432.097</v>
+        <v>611.8218000000001</v>
       </c>
       <c r="AE10" t="n">
-        <v>272.42598</v>
+        <v>270.7611</v>
       </c>
       <c r="AF10" t="n">
-        <v>4236.41006</v>
+        <v>817578.3</v>
       </c>
       <c r="AG10" t="n">
         <v>10</v>
@@ -1512,94 +1512,94 @@
         <v>60</v>
       </c>
       <c r="C11" t="n">
-        <v>1411.8687792</v>
+        <v>4917.432</v>
       </c>
       <c r="D11" t="n">
-        <v>52.6</v>
+        <v>73</v>
       </c>
       <c r="E11" t="n">
-        <v>1.839701019288e-08</v>
+        <v>3.479192e-06</v>
       </c>
       <c r="F11" t="n">
-        <v>4.98963334</v>
+        <v>6.356095</v>
       </c>
       <c r="G11" t="n">
-        <v>27.261798</v>
+        <v>19.89916</v>
       </c>
       <c r="H11" t="n">
-        <v>1.77283166</v>
+        <v>0.07969207</v>
       </c>
       <c r="I11" t="n">
-        <v>16.1906468</v>
+        <v>14.13398</v>
       </c>
       <c r="J11" t="n">
-        <v>26.607248</v>
+        <v>4.974795</v>
       </c>
       <c r="K11" t="n">
-        <v>0.3442170201247371</v>
+        <v>0.1790565</v>
       </c>
       <c r="L11" t="n">
-        <v>668.10742</v>
+        <v>150.065</v>
       </c>
       <c r="M11" t="n">
-        <v>49.08218</v>
+        <v>68.01398</v>
       </c>
       <c r="N11" t="n">
-        <v>25426.4228</v>
+        <v>48305.69</v>
       </c>
       <c r="O11" t="n">
-        <v>160.523414</v>
+        <v>56.29544</v>
       </c>
       <c r="P11" t="n">
-        <v>74.758174</v>
+        <v>61.60921</v>
       </c>
       <c r="Q11" t="n">
-        <v>43.581404</v>
+        <v>21.28088</v>
       </c>
       <c r="R11" t="n">
-        <v>131.991852</v>
+        <v>137.1893</v>
       </c>
       <c r="S11" t="n">
-        <v>45.044346</v>
+        <v>149.017</v>
       </c>
       <c r="T11" t="n">
-        <v>163.43355</v>
+        <v>29.59231</v>
       </c>
       <c r="U11" t="n">
-        <v>40.4532202</v>
+        <v>4.416744</v>
       </c>
       <c r="V11" t="n">
-        <v>58.07514</v>
+        <v>42.68134</v>
       </c>
       <c r="W11" t="n">
-        <v>198.66658</v>
+        <v>214.3265</v>
       </c>
       <c r="X11" t="n">
-        <v>102.03896</v>
+        <v>100.7563</v>
       </c>
       <c r="Y11" t="n">
-        <v>316.8284</v>
+        <v>319.8643</v>
       </c>
       <c r="Z11" t="n">
-        <v>249.30482</v>
+        <v>339.2404</v>
       </c>
       <c r="AA11" t="n">
-        <v>462.23274</v>
+        <v>397.7998</v>
       </c>
       <c r="AB11" t="n">
-        <v>315.14696</v>
+        <v>300.0244</v>
       </c>
       <c r="AC11" t="n">
-        <v>419.95768</v>
+        <v>406.318</v>
       </c>
       <c r="AD11" t="n">
-        <v>431.9874799999999</v>
+        <v>611.8218000000001</v>
       </c>
       <c r="AE11" t="n">
-        <v>272.40736</v>
+        <v>270.7611</v>
       </c>
       <c r="AF11" t="n">
-        <v>4236.40866</v>
+        <v>817578.3</v>
       </c>
       <c r="AG11" t="n">
         <v>10</v>
@@ -1613,94 +1613,94 @@
         <v>70</v>
       </c>
       <c r="C12" t="n">
-        <v>1411.8687792</v>
+        <v>4917.432</v>
       </c>
       <c r="D12" t="n">
-        <v>52.6</v>
+        <v>73</v>
       </c>
       <c r="E12" t="n">
-        <v>1.839701019288e-08</v>
+        <v>3.479192e-06</v>
       </c>
       <c r="F12" t="n">
-        <v>4.98963334</v>
+        <v>6.356095</v>
       </c>
       <c r="G12" t="n">
-        <v>27.261798</v>
+        <v>19.89916</v>
       </c>
       <c r="H12" t="n">
-        <v>1.77283166</v>
+        <v>0.07969207</v>
       </c>
       <c r="I12" t="n">
-        <v>16.1906468</v>
+        <v>14.13398</v>
       </c>
       <c r="J12" t="n">
-        <v>26.607248</v>
+        <v>4.974795</v>
       </c>
       <c r="K12" t="n">
-        <v>0.3442170201247371</v>
+        <v>0.1790565</v>
       </c>
       <c r="L12" t="n">
-        <v>668.10742</v>
+        <v>150.065</v>
       </c>
       <c r="M12" t="n">
-        <v>49.08218</v>
+        <v>68.01398</v>
       </c>
       <c r="N12" t="n">
-        <v>25426.4228</v>
+        <v>48305.69</v>
       </c>
       <c r="O12" t="n">
-        <v>160.523414</v>
+        <v>56.29544</v>
       </c>
       <c r="P12" t="n">
-        <v>74.758174</v>
+        <v>61.60921</v>
       </c>
       <c r="Q12" t="n">
-        <v>43.581404</v>
+        <v>21.28088</v>
       </c>
       <c r="R12" t="n">
-        <v>131.991852</v>
+        <v>137.1893</v>
       </c>
       <c r="S12" t="n">
-        <v>45.044346</v>
+        <v>149.017</v>
       </c>
       <c r="T12" t="n">
-        <v>163.43355</v>
+        <v>29.59231</v>
       </c>
       <c r="U12" t="n">
-        <v>40.4532202</v>
+        <v>4.416744</v>
       </c>
       <c r="V12" t="n">
-        <v>58.07514</v>
+        <v>42.68134</v>
       </c>
       <c r="W12" t="n">
-        <v>198.66658</v>
+        <v>214.3265</v>
       </c>
       <c r="X12" t="n">
-        <v>102.03896</v>
+        <v>100.7563</v>
       </c>
       <c r="Y12" t="n">
-        <v>316.8284</v>
+        <v>319.8643</v>
       </c>
       <c r="Z12" t="n">
-        <v>249.30482</v>
+        <v>339.2404</v>
       </c>
       <c r="AA12" t="n">
-        <v>462.23274</v>
+        <v>397.7998</v>
       </c>
       <c r="AB12" t="n">
-        <v>315.14696</v>
+        <v>300.0244</v>
       </c>
       <c r="AC12" t="n">
-        <v>419.95768</v>
+        <v>406.318</v>
       </c>
       <c r="AD12" t="n">
-        <v>431.9874799999999</v>
+        <v>611.8218000000001</v>
       </c>
       <c r="AE12" t="n">
-        <v>272.40736</v>
+        <v>270.7611</v>
       </c>
       <c r="AF12" t="n">
-        <v>4236.40866</v>
+        <v>817578.3</v>
       </c>
       <c r="AG12" t="n">
         <v>10</v>
@@ -1714,94 +1714,94 @@
         <v>80</v>
       </c>
       <c r="C13" t="n">
-        <v>1411.8687792</v>
+        <v>4917.432</v>
       </c>
       <c r="D13" t="n">
-        <v>52.6</v>
+        <v>73</v>
       </c>
       <c r="E13" t="n">
-        <v>1.839701019288e-08</v>
+        <v>3.479192e-06</v>
       </c>
       <c r="F13" t="n">
-        <v>4.98963334</v>
+        <v>6.356095</v>
       </c>
       <c r="G13" t="n">
-        <v>27.261798</v>
+        <v>19.89916</v>
       </c>
       <c r="H13" t="n">
-        <v>1.77283166</v>
+        <v>0.07969207</v>
       </c>
       <c r="I13" t="n">
-        <v>16.1906468</v>
+        <v>14.13398</v>
       </c>
       <c r="J13" t="n">
-        <v>26.607248</v>
+        <v>4.974795</v>
       </c>
       <c r="K13" t="n">
-        <v>0.3442170201247371</v>
+        <v>0.1790565</v>
       </c>
       <c r="L13" t="n">
-        <v>668.10742</v>
+        <v>150.065</v>
       </c>
       <c r="M13" t="n">
-        <v>49.08218</v>
+        <v>68.01398</v>
       </c>
       <c r="N13" t="n">
-        <v>25426.4228</v>
+        <v>48305.69</v>
       </c>
       <c r="O13" t="n">
-        <v>160.523414</v>
+        <v>56.29544</v>
       </c>
       <c r="P13" t="n">
-        <v>74.758174</v>
+        <v>61.60921</v>
       </c>
       <c r="Q13" t="n">
-        <v>43.581404</v>
+        <v>21.28088</v>
       </c>
       <c r="R13" t="n">
-        <v>131.991852</v>
+        <v>137.1893</v>
       </c>
       <c r="S13" t="n">
-        <v>45.044346</v>
+        <v>149.017</v>
       </c>
       <c r="T13" t="n">
-        <v>163.43355</v>
+        <v>29.59231</v>
       </c>
       <c r="U13" t="n">
-        <v>40.4532202</v>
+        <v>4.416744</v>
       </c>
       <c r="V13" t="n">
-        <v>58.07514</v>
+        <v>42.68134</v>
       </c>
       <c r="W13" t="n">
-        <v>198.66658</v>
+        <v>214.3265</v>
       </c>
       <c r="X13" t="n">
-        <v>102.03896</v>
+        <v>100.7563</v>
       </c>
       <c r="Y13" t="n">
-        <v>316.8284</v>
+        <v>319.8643</v>
       </c>
       <c r="Z13" t="n">
-        <v>249.30482</v>
+        <v>339.2404</v>
       </c>
       <c r="AA13" t="n">
-        <v>462.23274</v>
+        <v>397.7998</v>
       </c>
       <c r="AB13" t="n">
-        <v>315.14696</v>
+        <v>300.0244</v>
       </c>
       <c r="AC13" t="n">
-        <v>419.95768</v>
+        <v>406.318</v>
       </c>
       <c r="AD13" t="n">
-        <v>431.9874799999999</v>
+        <v>611.8218000000001</v>
       </c>
       <c r="AE13" t="n">
-        <v>272.40736</v>
+        <v>270.7611</v>
       </c>
       <c r="AF13" t="n">
-        <v>4236.40866</v>
+        <v>817578.3</v>
       </c>
       <c r="AG13" t="n">
         <v>10</v>
@@ -1815,94 +1815,94 @@
         <v>90</v>
       </c>
       <c r="C14" t="n">
-        <v>1411.8687792</v>
+        <v>4917.432</v>
       </c>
       <c r="D14" t="n">
-        <v>52.6</v>
+        <v>73</v>
       </c>
       <c r="E14" t="n">
-        <v>1.839701019288e-08</v>
+        <v>3.479192e-06</v>
       </c>
       <c r="F14" t="n">
-        <v>4.98963334</v>
+        <v>6.356095</v>
       </c>
       <c r="G14" t="n">
-        <v>27.261798</v>
+        <v>19.89916</v>
       </c>
       <c r="H14" t="n">
-        <v>1.77283166</v>
+        <v>0.07969207</v>
       </c>
       <c r="I14" t="n">
-        <v>16.1906468</v>
+        <v>14.13398</v>
       </c>
       <c r="J14" t="n">
-        <v>26.607248</v>
+        <v>4.974795</v>
       </c>
       <c r="K14" t="n">
-        <v>0.3442170201247371</v>
+        <v>0.1790565</v>
       </c>
       <c r="L14" t="n">
-        <v>668.10742</v>
+        <v>150.065</v>
       </c>
       <c r="M14" t="n">
-        <v>49.08218</v>
+        <v>68.01398</v>
       </c>
       <c r="N14" t="n">
-        <v>25426.4228</v>
+        <v>48305.69</v>
       </c>
       <c r="O14" t="n">
-        <v>160.523414</v>
+        <v>56.29544</v>
       </c>
       <c r="P14" t="n">
-        <v>74.758174</v>
+        <v>61.60921</v>
       </c>
       <c r="Q14" t="n">
-        <v>43.581404</v>
+        <v>21.28088</v>
       </c>
       <c r="R14" t="n">
-        <v>131.991852</v>
+        <v>137.1893</v>
       </c>
       <c r="S14" t="n">
-        <v>45.044346</v>
+        <v>149.017</v>
       </c>
       <c r="T14" t="n">
-        <v>163.43355</v>
+        <v>29.59231</v>
       </c>
       <c r="U14" t="n">
-        <v>40.4532202</v>
+        <v>4.416744</v>
       </c>
       <c r="V14" t="n">
-        <v>58.07514</v>
+        <v>42.68134</v>
       </c>
       <c r="W14" t="n">
-        <v>198.66658</v>
+        <v>214.3265</v>
       </c>
       <c r="X14" t="n">
-        <v>102.03896</v>
+        <v>100.7563</v>
       </c>
       <c r="Y14" t="n">
-        <v>316.8284</v>
+        <v>319.8643</v>
       </c>
       <c r="Z14" t="n">
-        <v>249.30482</v>
+        <v>339.2404</v>
       </c>
       <c r="AA14" t="n">
-        <v>462.23274</v>
+        <v>397.7998</v>
       </c>
       <c r="AB14" t="n">
-        <v>315.14696</v>
+        <v>300.0244</v>
       </c>
       <c r="AC14" t="n">
-        <v>419.95768</v>
+        <v>406.318</v>
       </c>
       <c r="AD14" t="n">
-        <v>431.9874799999999</v>
+        <v>611.8218000000001</v>
       </c>
       <c r="AE14" t="n">
-        <v>272.40736</v>
+        <v>270.7611</v>
       </c>
       <c r="AF14" t="n">
-        <v>4236.40866</v>
+        <v>817578.3</v>
       </c>
       <c r="AG14" t="n">
         <v>10</v>
@@ -1916,94 +1916,94 @@
         <v>100</v>
       </c>
       <c r="C15" t="n">
-        <v>1411.8687792</v>
+        <v>4917.432</v>
       </c>
       <c r="D15" t="n">
-        <v>52.6</v>
+        <v>73</v>
       </c>
       <c r="E15" t="n">
-        <v>1.839701019288e-08</v>
+        <v>3.479192e-06</v>
       </c>
       <c r="F15" t="n">
-        <v>4.98963334</v>
+        <v>6.356095</v>
       </c>
       <c r="G15" t="n">
-        <v>27.261798</v>
+        <v>19.89916</v>
       </c>
       <c r="H15" t="n">
-        <v>1.77283166</v>
+        <v>0.07969207</v>
       </c>
       <c r="I15" t="n">
-        <v>16.1906468</v>
+        <v>14.13398</v>
       </c>
       <c r="J15" t="n">
-        <v>26.607248</v>
+        <v>4.974795</v>
       </c>
       <c r="K15" t="n">
-        <v>0.3442170201247371</v>
+        <v>0.1790565</v>
       </c>
       <c r="L15" t="n">
-        <v>668.10742</v>
+        <v>150.065</v>
       </c>
       <c r="M15" t="n">
-        <v>49.08218</v>
+        <v>68.01398</v>
       </c>
       <c r="N15" t="n">
-        <v>25426.4228</v>
+        <v>48305.69</v>
       </c>
       <c r="O15" t="n">
-        <v>160.523414</v>
+        <v>56.29544</v>
       </c>
       <c r="P15" t="n">
-        <v>74.758174</v>
+        <v>61.60921</v>
       </c>
       <c r="Q15" t="n">
-        <v>43.581404</v>
+        <v>21.28088</v>
       </c>
       <c r="R15" t="n">
-        <v>131.991852</v>
+        <v>137.1893</v>
       </c>
       <c r="S15" t="n">
-        <v>45.044346</v>
+        <v>149.017</v>
       </c>
       <c r="T15" t="n">
-        <v>163.43355</v>
+        <v>29.59231</v>
       </c>
       <c r="U15" t="n">
-        <v>40.4532202</v>
+        <v>4.416744</v>
       </c>
       <c r="V15" t="n">
-        <v>58.07514</v>
+        <v>42.68134</v>
       </c>
       <c r="W15" t="n">
-        <v>198.66658</v>
+        <v>214.3265</v>
       </c>
       <c r="X15" t="n">
-        <v>102.03896</v>
+        <v>100.7563</v>
       </c>
       <c r="Y15" t="n">
-        <v>316.8284</v>
+        <v>319.8643</v>
       </c>
       <c r="Z15" t="n">
-        <v>249.30482</v>
+        <v>339.2404</v>
       </c>
       <c r="AA15" t="n">
-        <v>462.23274</v>
+        <v>397.7998</v>
       </c>
       <c r="AB15" t="n">
-        <v>315.14696</v>
+        <v>300.0244</v>
       </c>
       <c r="AC15" t="n">
-        <v>419.95768</v>
+        <v>406.318</v>
       </c>
       <c r="AD15" t="n">
-        <v>431.9874799999999</v>
+        <v>611.8218000000001</v>
       </c>
       <c r="AE15" t="n">
-        <v>272.40736</v>
+        <v>270.7611</v>
       </c>
       <c r="AF15" t="n">
-        <v>4236.40866</v>
+        <v>817578.3</v>
       </c>
       <c r="AG15" t="n">
         <v>10</v>
